--- a/data/trans_bre/P21D_2_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P21D_2_R-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.113108733622716</v>
+        <v>-1.138181377228823</v>
       </c>
       <c r="D5" s="6" t="inlineStr"/>
     </row>
@@ -578,7 +578,7 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>8.243161242873622</v>
+        <v>7.693068109973873</v>
       </c>
       <c r="D6" s="6" t="inlineStr"/>
     </row>
@@ -608,10 +608,10 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-1.03266830688669</v>
+        <v>-1.093762009162116</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.7263725120664166</v>
+        <v>-0.7574927600953405</v>
       </c>
     </row>
     <row r="9">
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>3.510464505863215</v>
+        <v>3.642227523118992</v>
       </c>
       <c r="D9" s="6" t="inlineStr"/>
     </row>
@@ -638,10 +638,10 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>-0.3959518878681407</v>
+        <v>-0.3959518878681404</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>-0.1464162601523463</v>
+        <v>-0.1464162601523462</v>
       </c>
     </row>
     <row r="11">
@@ -652,10 +652,10 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.935179322480399</v>
+        <v>-2.893143406937914</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>-0.6955498680448969</v>
+        <v>-0.6819596660364755</v>
       </c>
     </row>
     <row r="12">
@@ -666,10 +666,10 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.897348076407225</v>
+        <v>1.957729333094735</v>
       </c>
       <c r="D12" s="6" t="n">
-        <v>1.695217235432621</v>
+        <v>2.125629854351163</v>
       </c>
     </row>
     <row r="13">
@@ -684,10 +684,10 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>-1.502375041527665</v>
+        <v>-1.502375041527666</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>-0.4464989342224852</v>
+        <v>-0.4464989342224854</v>
       </c>
     </row>
     <row r="14">
@@ -698,10 +698,10 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-4.113949838797989</v>
+        <v>-4.141386789098489</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.7960090397800585</v>
+        <v>-0.7918203223733747</v>
       </c>
     </row>
     <row r="15">
@@ -712,10 +712,10 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.6579279539922954</v>
+        <v>0.6212138524786611</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.4568496128432785</v>
+        <v>0.3472630785795181</v>
       </c>
     </row>
     <row r="16">
@@ -730,10 +730,10 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.9626441395769001</v>
+        <v>0.9626441395769008</v>
       </c>
       <c r="D16" s="6" t="n">
-        <v>0.261410656458495</v>
+        <v>0.2614106564584953</v>
       </c>
     </row>
     <row r="17">
@@ -744,10 +744,10 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.208436552151885</v>
+        <v>-2.514641500175498</v>
       </c>
       <c r="D17" s="6" t="n">
-        <v>-0.4311062998100892</v>
+        <v>-0.443085687989336</v>
       </c>
     </row>
     <row r="18">
@@ -758,10 +758,10 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.728359979627521</v>
+        <v>3.725286745391136</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>1.883301303500624</v>
+        <v>1.666097807270794</v>
       </c>
     </row>
     <row r="19">
@@ -776,10 +776,10 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.09283703397095742</v>
+        <v>0.09283703397095724</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>0.08729130000980237</v>
+        <v>0.0872913000098022</v>
       </c>
     </row>
     <row r="20">
@@ -790,7 +790,7 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-1.944910620438999</v>
+        <v>-2.52215990187386</v>
       </c>
       <c r="D20" s="6" t="inlineStr"/>
     </row>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>1.647220526138377</v>
+        <v>1.535842467076141</v>
       </c>
       <c r="D21" s="6" t="inlineStr"/>
     </row>
@@ -834,7 +834,7 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.3037562350050503</v>
+        <v>0.3036470064768437</v>
       </c>
       <c r="D23" s="6" t="inlineStr"/>
     </row>
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.609889278394948</v>
+        <v>2.758677438284853</v>
       </c>
       <c r="D24" s="6" t="inlineStr"/>
     </row>
@@ -862,10 +862,10 @@
         </is>
       </c>
       <c r="C25" s="5" t="n">
-        <v>0.2544285324725982</v>
+        <v>0.2544285324725979</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>0.1189618948642544</v>
+        <v>0.1189618948642543</v>
       </c>
     </row>
     <row r="26">
@@ -876,10 +876,10 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-0.7004348729737142</v>
+        <v>-0.9139104088364782</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.2643209334093309</v>
+        <v>-0.3292097417572833</v>
       </c>
     </row>
     <row r="27">
@@ -890,10 +890,10 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>1.311733990808221</v>
+        <v>1.193894748848389</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.7812669614159334</v>
+        <v>0.6816269865366101</v>
       </c>
     </row>
     <row r="28">
